--- a/data/evaluation/evaluation_Center_Winter_Tomatoes.xlsx
+++ b/data/evaluation/evaluation_Center_Winter_Tomatoes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2211.268146737102</v>
+        <v>2351.445152809683</v>
       </c>
       <c r="C4" t="n">
-        <v>12116737.60678169</v>
+        <v>12513205.11026064</v>
       </c>
       <c r="D4" t="n">
-        <v>3480.910456587714</v>
+        <v>3537.4008975886</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2253616014320594</v>
+        <v>-0.2654562267961367</v>
       </c>
     </row>
     <row r="5">
